--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H2">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I2">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J2">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N2">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q2">
-        <v>22.28996672723432</v>
+        <v>31.57235163197189</v>
       </c>
       <c r="R2">
-        <v>22.28996672723432</v>
+        <v>284.151164687747</v>
       </c>
       <c r="S2">
-        <v>0.06638161723043277</v>
+        <v>0.06877653835974759</v>
       </c>
       <c r="T2">
-        <v>0.06638161723043277</v>
+        <v>0.06877653835974759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H3">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I3">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J3">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N3">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q3">
-        <v>41.10273651559098</v>
+        <v>57.5818274913881</v>
       </c>
       <c r="R3">
-        <v>41.10273651559098</v>
+        <v>518.236447422493</v>
       </c>
       <c r="S3">
-        <v>0.1224078149550398</v>
+        <v>0.125435026615991</v>
       </c>
       <c r="T3">
-        <v>0.1224078149550398</v>
+        <v>0.1254350266159911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H4">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I4">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J4">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N4">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q4">
-        <v>31.67981330393387</v>
+        <v>49.41792741126688</v>
       </c>
       <c r="R4">
-        <v>31.67981330393387</v>
+        <v>444.761346701402</v>
       </c>
       <c r="S4">
-        <v>0.09434546342789628</v>
+        <v>0.107650960558111</v>
       </c>
       <c r="T4">
-        <v>0.09434546342789628</v>
+        <v>0.1076509605581111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.488934477559002</v>
+        <v>0.6813643333333333</v>
       </c>
       <c r="H5">
-        <v>0.488934477559002</v>
+        <v>2.044093</v>
       </c>
       <c r="I5">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="J5">
-        <v>0.3217041568166616</v>
+        <v>0.3450055461675409</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N5">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q5">
-        <v>12.95098831248828</v>
+        <v>19.80510578749222</v>
       </c>
       <c r="R5">
-        <v>12.95098831248828</v>
+        <v>178.24595208743</v>
       </c>
       <c r="S5">
-        <v>0.03856926120329278</v>
+        <v>0.04314302063369121</v>
       </c>
       <c r="T5">
-        <v>0.03856926120329278</v>
+        <v>0.04314302063369121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H6">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I6">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J6">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N6">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q6">
-        <v>38.48055787779631</v>
+        <v>39.164786038581</v>
       </c>
       <c r="R6">
-        <v>38.48055787779631</v>
+        <v>352.483074347229</v>
       </c>
       <c r="S6">
-        <v>0.1145987203622144</v>
+        <v>0.08531573576565857</v>
       </c>
       <c r="T6">
-        <v>0.1145987203622144</v>
+        <v>0.08531573576565857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H7">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I7">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J7">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N7">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q7">
-        <v>70.95821410498169</v>
+        <v>71.428950864939</v>
       </c>
       <c r="R7">
-        <v>70.95821410498169</v>
+        <v>642.860557784451</v>
       </c>
       <c r="S7">
-        <v>0.2113202350507248</v>
+        <v>0.1555993052536574</v>
       </c>
       <c r="T7">
-        <v>0.2113202350507248</v>
+        <v>0.1555993052536574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H8">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I8">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J8">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N8">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q8">
-        <v>54.69083486384666</v>
+        <v>61.30181799864599</v>
       </c>
       <c r="R8">
-        <v>54.69083486384666</v>
+        <v>551.716361987814</v>
       </c>
       <c r="S8">
-        <v>0.162874449763485</v>
+        <v>0.1335385747077725</v>
       </c>
       <c r="T8">
-        <v>0.162874449763485</v>
+        <v>0.1335385747077725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.844078041586818</v>
+        <v>0.845217</v>
       </c>
       <c r="H9">
-        <v>0.844078041586818</v>
+        <v>2.535651</v>
       </c>
       <c r="I9">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="J9">
-        <v>0.5553779230538676</v>
+        <v>0.4279715542029013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N9">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q9">
-        <v>22.3580977680178</v>
+        <v>24.56778448688999</v>
       </c>
       <c r="R9">
-        <v>22.3580977680178</v>
+        <v>221.1100603820099</v>
       </c>
       <c r="S9">
-        <v>0.06658451787744338</v>
+        <v>0.05351793847581286</v>
       </c>
       <c r="T9">
-        <v>0.06658451787744338</v>
+        <v>0.05351793847581286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H10">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I10">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J10">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N10">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q10">
-        <v>8.516633347166154</v>
+        <v>0.4202453328702223</v>
       </c>
       <c r="R10">
-        <v>8.516633347166154</v>
+        <v>3.782207995832</v>
       </c>
       <c r="S10">
-        <v>0.0253633350763494</v>
+        <v>0.0009154534826409621</v>
       </c>
       <c r="T10">
-        <v>0.0253633350763494</v>
+        <v>0.000915453482640962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H11">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I11">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J11">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N11">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q11">
-        <v>15.7046863619029</v>
+        <v>0.7664457352897778</v>
       </c>
       <c r="R11">
-        <v>15.7046863619029</v>
+        <v>6.898011617608</v>
       </c>
       <c r="S11">
-        <v>0.04677003297300064</v>
+        <v>0.001669609065814464</v>
       </c>
       <c r="T11">
-        <v>0.04677003297300064</v>
+        <v>0.001669609065814464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.186813902735463</v>
+        <v>0.009069333333333334</v>
       </c>
       <c r="H12">
-        <v>0.186813902735463</v>
+        <v>0.027208</v>
       </c>
       <c r="I12">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="J12">
-        <v>0.1229179201294709</v>
+        <v>0.004592213221280271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N12">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q12">
-        <v>12.10434083271321</v>
+        <v>0.6577797433902222</v>
       </c>
       <c r="R12">
-        <v>12.10434083271321</v>
+        <v>5.920017690511999</v>
       </c>
       <c r="S12">
-        <v>0.03604786538340263</v>
+        <v>0.001432893383454219</v>
       </c>
       <c r="T12">
-        <v>0.03604786538340263</v>
+        <v>0.001432893383454219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009069333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.027208</v>
+      </c>
+      <c r="I13">
+        <v>0.004592213221280271</v>
+      </c>
+      <c r="J13">
+        <v>0.004592213221280271</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.06683666666666</v>
+      </c>
+      <c r="N13">
+        <v>87.20050999999998</v>
+      </c>
+      <c r="O13">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="P13">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="Q13">
+        <v>0.2636168306755555</v>
+      </c>
+      <c r="R13">
+        <v>2.372551476079999</v>
+      </c>
+      <c r="S13">
+        <v>0.0005742572893706257</v>
+      </c>
+      <c r="T13">
+        <v>0.0005742572893706257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.31786</v>
+      </c>
+      <c r="I14">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J14">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.33695966666667</v>
+      </c>
+      <c r="N14">
+        <v>139.010879</v>
+      </c>
+      <c r="O14">
+        <v>0.1993490803952133</v>
+      </c>
+      <c r="P14">
+        <v>0.1993490803952133</v>
+      </c>
+      <c r="Q14">
+        <v>20.35520855543778</v>
+      </c>
+      <c r="R14">
+        <v>183.19687699894</v>
+      </c>
+      <c r="S14">
+        <v>0.04434135278716621</v>
+      </c>
+      <c r="T14">
+        <v>0.04434135278716621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.31786</v>
+      </c>
+      <c r="I15">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J15">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.50960033333332</v>
+      </c>
+      <c r="N15">
+        <v>253.528801</v>
+      </c>
+      <c r="O15">
+        <v>0.3635739425333109</v>
+      </c>
+      <c r="P15">
+        <v>0.3635739425333109</v>
+      </c>
+      <c r="Q15">
+        <v>37.12394063176222</v>
+      </c>
+      <c r="R15">
+        <v>334.11546568586</v>
+      </c>
+      <c r="S15">
+        <v>0.08087000159784802</v>
+      </c>
+      <c r="T15">
+        <v>0.08087000159784802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.186813902735463</v>
-      </c>
-      <c r="H13">
-        <v>0.186813902735463</v>
-      </c>
-      <c r="I13">
-        <v>0.1229179201294709</v>
-      </c>
-      <c r="J13">
-        <v>0.1229179201294709</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>26.4881879002395</v>
-      </c>
-      <c r="N13">
-        <v>26.4881879002395</v>
-      </c>
-      <c r="O13">
-        <v>0.1198904657774543</v>
-      </c>
-      <c r="P13">
-        <v>0.1198904657774543</v>
-      </c>
-      <c r="Q13">
-        <v>4.94836175803401</v>
-      </c>
-      <c r="R13">
-        <v>4.94836175803401</v>
-      </c>
-      <c r="S13">
-        <v>0.01473668669671819</v>
-      </c>
-      <c r="T13">
-        <v>0.01473668669671819</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.31786</v>
+      </c>
+      <c r="I16">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J16">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>72.52790466666666</v>
+      </c>
+      <c r="N16">
+        <v>217.583714</v>
+      </c>
+      <c r="O16">
+        <v>0.3120267536390091</v>
+      </c>
+      <c r="P16">
+        <v>0.3120267536390091</v>
+      </c>
+      <c r="Q16">
+        <v>31.86054148133777</v>
+      </c>
+      <c r="R16">
+        <v>286.74487333204</v>
+      </c>
+      <c r="S16">
+        <v>0.06940432498967132</v>
+      </c>
+      <c r="T16">
+        <v>0.06940432498967132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4392866666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.31786</v>
+      </c>
+      <c r="I17">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="J17">
+        <v>0.2224306864082776</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.06683666666666</v>
+      </c>
+      <c r="N17">
+        <v>87.20050999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="P17">
+        <v>0.1250502234324667</v>
+      </c>
+      <c r="Q17">
+        <v>12.76867378984444</v>
+      </c>
+      <c r="R17">
+        <v>114.9180641086</v>
+      </c>
+      <c r="S17">
+        <v>0.02781500703359206</v>
+      </c>
+      <c r="T17">
+        <v>0.02781500703359206</v>
       </c>
     </row>
   </sheetData>
